--- a/biology/Botanique/Werner_Uebelmann/Werner_Uebelmann.xlsx
+++ b/biology/Botanique/Werner_Uebelmann/Werner_Uebelmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Uebelmann (né le 16 mars 1921 à Aarau, mort le 1er mars 2014 à Muri) est un entrepreneur, écrivain et horticulteur suisse.
-Il est devenu membre de la  Swiss Cactus Society  à l'âge de 27 ans. Il est connu en particulier pour son importante collection de cactus[1],[2].
+Il est devenu membre de la  Swiss Cactus Society  à l'âge de 27 ans. Il est connu en particulier pour son importante collection de cactus,.
 L'espèce de cactus Uebelmannia pectinifera lui doit son nom, ainsi que le genre Uebelmannia.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Horst &amp; Uebelmann Feldnummernliste. Selbstverlag Werner Uebelmann, 1996.</t>
         </is>
